--- a/AutoMechanic/bin/Debug/ConsiderationOrders.xlsx
+++ b/AutoMechanic/bin/Debug/ConsiderationOrders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solov\source\repos\AutoMechanic\AutoMechanic\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7834FB-732F-4621-A63A-3C2AD13C96F0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC998586-9692-43E6-A142-82B69C26A75C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Sanya</t>
+  </si>
+  <si>
+    <t>Bustrev</t>
+  </si>
+  <si>
+    <t>BMW X5</t>
+  </si>
+  <si>
+    <t>г534ор</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,7 +354,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -349,7 +366,25 @@
     <col min="3" max="3" width="18.44140625" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>89991231212</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>